--- a/overview/SlicerRT_Users.xlsx
+++ b/overview/SlicerRT_Users.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="208">
   <si>
     <t>User</t>
   </si>
@@ -648,6 +648,21 @@
   </si>
   <si>
     <t>Gamma knife with MRI</t>
+  </si>
+  <si>
+    <t>Mayo Clinic Translational Interventional Electrophysiology Laboratory</t>
+  </si>
+  <si>
+    <t>Stephan Hohmann</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Catheter-free ablation of ischemic ventricular tachycardia using proton beams in a porcine model</t>
+  </si>
+  <si>
+    <t>Hohmann.Stephan@mayo.edu</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,6 +1924,26 @@
       </c>
       <c r="F53" s="3">
         <v>43378</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>204</v>
+      </c>
+      <c r="B54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E54" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" s="3">
+        <v>43396</v>
       </c>
     </row>
   </sheetData>
@@ -1948,11 +1983,12 @@
     <hyperlink ref="D51" r:id="rId33"/>
     <hyperlink ref="D52" r:id="rId34"/>
     <hyperlink ref="D53" r:id="rId35"/>
+    <hyperlink ref="D54" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId36"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId37"/>
   <tableParts count="1">
-    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
 </file>
--- a/overview/SlicerRT_Users.xlsx
+++ b/overview/SlicerRT_Users.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="208">
   <si>
     <t>User</t>
   </si>
@@ -608,9 +608,6 @@
     <t>Room's Eye View with Siemens linac</t>
   </si>
   <si>
-    <t>Madrid, Spain</t>
-  </si>
-  <si>
     <t>Roozbeh Shams</t>
   </si>
   <si>
@@ -663,6 +660,9 @@
   </si>
   <si>
     <t>Hohmann.Stephan@mayo.edu</t>
+  </si>
+  <si>
+    <t>Hospital Universitario de Fuenlabrada, Madrid, Spain</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,7 +1412,7 @@
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>74</v>
@@ -1486,7 +1486,7 @@
         <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>91</v>
@@ -1860,10 +1860,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="B50" t="s">
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>187</v>
@@ -1877,16 +1880,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C51" t="s">
         <v>182</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F51" s="3">
         <v>43220</v>
@@ -1894,33 +1897,33 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B52" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" t="s">
-        <v>194</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" t="s">
         <v>197</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>198</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="E53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F53" s="3">
         <v>43378</v>
@@ -1928,19 +1931,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" t="s">
         <v>204</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E54" t="s">
         <v>205</v>
-      </c>
-      <c r="C54" t="s">
-        <v>203</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E54" t="s">
-        <v>206</v>
       </c>
       <c r="F54" s="3">
         <v>43396</v>

--- a/overview/SlicerRT_Users.xlsx
+++ b/overview/SlicerRT_Users.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="212">
   <si>
     <t>User</t>
   </si>
@@ -663,6 +663,18 @@
   </si>
   <si>
     <t>Hospital Universitario de Fuenlabrada, Madrid, Spain</t>
+  </si>
+  <si>
+    <t>Félix Navarro Guirado</t>
+  </si>
+  <si>
+    <t>Regional University Hospital of Málaga</t>
+  </si>
+  <si>
+    <t>TRUS guided prostate biopsies using the previous knowledge of MR images. Register the MR regions on the TRUS images to obtain more samples from the portion of the prostate which shows more risk on MR.</t>
+  </si>
+  <si>
+    <t>felix.navarro.sspa@juntadeandalucia.es</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,6 +1959,26 @@
       </c>
       <c r="F54" s="3">
         <v>43396</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>208</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E55" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" s="3">
+        <v>43515</v>
       </c>
     </row>
   </sheetData>
@@ -1987,11 +2019,12 @@
     <hyperlink ref="D52" r:id="rId34"/>
     <hyperlink ref="D53" r:id="rId35"/>
     <hyperlink ref="D54" r:id="rId36"/>
+    <hyperlink ref="D55" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId37"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId38"/>
   <tableParts count="1">
-    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId39"/>
   </tableParts>
 </worksheet>
 </file>
--- a/overview/SlicerRT_Users.xlsx
+++ b/overview/SlicerRT_Users.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="company" localSheetId="0">Sheet1!$C$29</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="218">
   <si>
     <t>User</t>
   </si>
@@ -620,9 +620,6 @@
     <t>samuel.kadoury@polymtl.ca</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Mayo Clinic, AZ, USA</t>
   </si>
   <si>
@@ -675,6 +672,27 @@
   </si>
   <si>
     <t>felix.navarro.sspa@juntadeandalucia.es</t>
+  </si>
+  <si>
+    <t>Samuel Shyllon</t>
+  </si>
+  <si>
+    <t>Medical Physics student</t>
+  </si>
+  <si>
+    <t>University of Western Australia</t>
+  </si>
+  <si>
+    <t>http://uwamedicalphysics.com/2018/12/24/uwa-medical-physics-research-update-samuel-shyllon/</t>
+  </si>
+  <si>
+    <t>Dosimetric comparison of proton therapy and CyberKnife in Stereotactic ablative radiotherapy treatment for liver</t>
+  </si>
+  <si>
+    <t>Polytechnique Montreal</t>
+  </si>
+  <si>
+    <t>Research associate</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1442,7 @@
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>74</v>
@@ -1498,7 +1516,7 @@
         <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>91</v>
@@ -1872,13 +1890,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>187</v>
@@ -1895,10 +1913,10 @@
         <v>189</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>190</v>
@@ -1912,10 +1930,10 @@
         <v>191</v>
       </c>
       <c r="B52" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>192</v>
@@ -1923,19 +1941,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" t="s">
         <v>196</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>197</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="E53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F53" s="3">
         <v>43378</v>
@@ -1943,19 +1961,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" t="s">
         <v>203</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E54" t="s">
         <v>204</v>
-      </c>
-      <c r="C54" t="s">
-        <v>202</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E54" t="s">
-        <v>205</v>
       </c>
       <c r="F54" s="3">
         <v>43396</v>
@@ -1963,22 +1981,42 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B55" t="s">
         <v>68</v>
       </c>
       <c r="C55" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" t="s">
         <v>209</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E55" t="s">
-        <v>210</v>
       </c>
       <c r="F55" s="3">
         <v>43515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" t="s">
+        <v>215</v>
+      </c>
+      <c r="F56" s="3">
+        <v>43525</v>
       </c>
     </row>
   </sheetData>

--- a/overview/SlicerRT_Users.xlsx
+++ b/overview/SlicerRT_Users.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="221">
   <si>
     <t>User</t>
   </si>
@@ -381,9 +381,6 @@
   </si>
   <si>
     <t>Dalhousie University</t>
-  </si>
-  <si>
-    <t>http://www.jacmp.org/index.php/jacmp/article/view/4831</t>
   </si>
   <si>
     <t>James.Robar@cdha.nshealth.ca</t>
@@ -542,12 +539,6 @@
     </r>
   </si>
   <si>
-    <t>Angelika ???</t>
-  </si>
-  <si>
-    <t>https://app.assembla.com/spaces/slicerrt/messages/5675353</t>
-  </si>
-  <si>
     <t>https://wiki.cancerimagingarchive.net/display/Public/Soft-tissue-Sarcoma</t>
   </si>
   <si>
@@ -693,6 +684,24 @@
   </si>
   <si>
     <t>Research associate</t>
+  </si>
+  <si>
+    <t>https://aapm.onlinelibrary.wiley.com/doi/pdf/10.1120/jacmp.v15i4.4831</t>
+  </si>
+  <si>
+    <t>Stephenson Cancer Center, University of Oklahoma Health Sciences Center</t>
+  </si>
+  <si>
+    <t>Proton Monte Carlo dose calculation: https://aapm.onlinelibrary.wiley.com/doi/full/10.1002/acm2.12473</t>
+  </si>
+  <si>
+    <t>Yong Chen</t>
+  </si>
+  <si>
+    <t>Associate Professor</t>
+  </si>
+  <si>
+    <t>Yong-Chen@ouhsc.edu</t>
   </si>
 </sst>
 </file>
@@ -781,8 +790,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F1048576" totalsRowShown="0">
-  <autoFilter ref="A1:F1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F1048575" totalsRowShown="0">
+  <autoFilter ref="A1:F1048575"/>
   <tableColumns count="6">
     <tableColumn id="1" name="User"/>
     <tableColumn id="5" name="Role"/>
@@ -1084,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,7 +1451,7 @@
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>74</v>
@@ -1516,7 +1525,7 @@
         <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>91</v>
@@ -1599,10 +1608,10 @@
         <v>117</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" t="s">
         <v>118</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="F33" s="3">
         <v>42002</v>
@@ -1610,16 +1619,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>122</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" t="s">
-        <v>123</v>
       </c>
       <c r="F34" s="3">
         <v>41988</v>
@@ -1627,19 +1636,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" t="s">
         <v>124</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>125</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" t="s">
         <v>126</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" t="s">
-        <v>127</v>
       </c>
       <c r="F35" s="3">
         <v>42032</v>
@@ -1647,50 +1656,50 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>132</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
         <v>68</v>
       </c>
       <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" t="s">
         <v>136</v>
-      </c>
-      <c r="E37" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
         <v>138</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>139</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>140</v>
-      </c>
-      <c r="E38" t="s">
-        <v>141</v>
       </c>
       <c r="F38" s="3">
         <v>42166</v>
@@ -1698,19 +1707,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" t="s">
         <v>143</v>
-      </c>
-      <c r="E39" t="s">
-        <v>144</v>
       </c>
       <c r="F39">
         <v>2013</v>
@@ -1718,19 +1727,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" t="s">
         <v>146</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>147</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" t="s">
         <v>149</v>
-      </c>
-      <c r="E40" t="s">
-        <v>150</v>
       </c>
       <c r="F40" s="3">
         <v>42258</v>
@@ -1738,19 +1747,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" t="s">
         <v>151</v>
       </c>
-      <c r="B41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>152</v>
       </c>
-      <c r="D41" t="s">
-        <v>153</v>
-      </c>
       <c r="E41" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F41" s="3">
         <v>42348</v>
@@ -1758,19 +1767,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="E42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F42" s="3">
         <v>42417</v>
@@ -1778,30 +1787,30 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" t="s">
         <v>159</v>
-      </c>
-      <c r="E43" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" t="s">
         <v>164</v>
-      </c>
-      <c r="E44" t="s">
-        <v>165</v>
       </c>
       <c r="F44" s="3">
         <v>42418</v>
@@ -1811,212 +1820,221 @@
       <c r="A45" t="s">
         <v>167</v>
       </c>
-      <c r="E45" t="s">
+      <c r="B45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" t="s">
         <v>168</v>
       </c>
+      <c r="E45" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="F45" s="3">
-        <v>42655</v>
+        <v>42741</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
-      </c>
-      <c r="D46" t="s">
-        <v>171</v>
+        <v>179</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
-      </c>
-      <c r="F46" s="3">
-        <v>42741</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="E47" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>171</v>
+      </c>
+      <c r="B48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" t="s">
+        <v>173</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E48" t="s">
-        <v>180</v>
-      </c>
-      <c r="F48" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="F48" s="3">
+        <v>42807</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E49" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F49" s="3">
-        <v>42807</v>
+        <v>42977</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="C50" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E50" t="s">
-        <v>188</v>
-      </c>
       <c r="F50" s="3">
-        <v>42977</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B51" t="s">
-        <v>217</v>
-      </c>
-      <c r="C51" t="s">
-        <v>216</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F51" s="3">
-        <v>43220</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
+      </c>
+      <c r="E52" t="s">
+        <v>197</v>
+      </c>
+      <c r="F52" s="3">
+        <v>43378</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F53" s="3">
-        <v>43378</v>
+        <v>43396</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F54" s="3">
-        <v>43396</v>
+        <v>43515</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
-      </c>
-      <c r="D55" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D55" t="s">
+        <v>211</v>
+      </c>
       <c r="E55" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F55" s="3">
-        <v>43515</v>
+        <v>43525</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
-      </c>
-      <c r="D56" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="E56" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F56" s="3">
-        <v>43525</v>
+        <v>43599</v>
       </c>
     </row>
   </sheetData>
@@ -2050,19 +2068,22 @@
     <hyperlink ref="D42" r:id="rId27"/>
     <hyperlink ref="D43" r:id="rId28"/>
     <hyperlink ref="D44" r:id="rId29"/>
-    <hyperlink ref="D48" r:id="rId30"/>
-    <hyperlink ref="D47" r:id="rId31"/>
-    <hyperlink ref="D49" r:id="rId32"/>
-    <hyperlink ref="D51" r:id="rId33"/>
-    <hyperlink ref="D52" r:id="rId34"/>
-    <hyperlink ref="D53" r:id="rId35"/>
-    <hyperlink ref="D54" r:id="rId36"/>
-    <hyperlink ref="D55" r:id="rId37"/>
+    <hyperlink ref="D47" r:id="rId30"/>
+    <hyperlink ref="D46" r:id="rId31"/>
+    <hyperlink ref="D48" r:id="rId32"/>
+    <hyperlink ref="D50" r:id="rId33"/>
+    <hyperlink ref="D51" r:id="rId34"/>
+    <hyperlink ref="D52" r:id="rId35"/>
+    <hyperlink ref="D53" r:id="rId36"/>
+    <hyperlink ref="D54" r:id="rId37"/>
+    <hyperlink ref="E45" r:id="rId38"/>
+    <hyperlink ref="E33" r:id="rId39"/>
+    <hyperlink ref="D56" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId38"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId41"/>
   <tableParts count="1">
-    <tablePart r:id="rId39"/>
+    <tablePart r:id="rId42"/>
   </tableParts>
 </worksheet>
 </file>
--- a/overview/SlicerRT_Users.xlsx
+++ b/overview/SlicerRT_Users.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="226">
   <si>
     <t>User</t>
   </si>
@@ -702,6 +702,21 @@
   </si>
   <si>
     <t>Yong-Chen@ouhsc.edu</t>
+  </si>
+  <si>
+    <t>Matthew Warkentin</t>
+  </si>
+  <si>
+    <t>MSc. Ph.D Student, Epidemiology</t>
+  </si>
+  <si>
+    <t>Lunenfeld-Tanenbaum Research Institute, Toronto, ON</t>
+  </si>
+  <si>
+    <t>mattwarkentin@GitHub</t>
+  </si>
+  <si>
+    <t>https://github.com/SlicerRt/SlicerRT/issues/105</t>
   </si>
 </sst>
 </file>
@@ -1091,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,6 +2050,26 @@
       </c>
       <c r="F56" s="3">
         <v>43599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" s="3">
+        <v>43711</v>
       </c>
     </row>
   </sheetData>
@@ -2079,11 +2114,13 @@
     <hyperlink ref="E45" r:id="rId38"/>
     <hyperlink ref="E33" r:id="rId39"/>
     <hyperlink ref="D56" r:id="rId40"/>
+    <hyperlink ref="E57" r:id="rId41"/>
+    <hyperlink ref="D57" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId41"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId43"/>
   <tableParts count="1">
-    <tablePart r:id="rId42"/>
+    <tablePart r:id="rId44"/>
   </tableParts>
 </worksheet>
 </file>